--- a/apps/documents-generation/templates/approved.xlsx
+++ b/apps/documents-generation/templates/approved.xlsx
@@ -1002,6 +1002,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1258,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1287,14 +1317,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Заказчик:  ___________________________________________</t>
+          <t>Заказчик: Кузько Василий Александрович</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Подрядчик:  __________________________________________</t>
+          <t>Подрядчик: Иванов Иван Иванович</t>
         </is>
       </c>
     </row>
@@ -1309,21 +1339,21 @@
       <c r="C5" s="29" t="n"/>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>_________________________________</t>
+          <t>Кузько Василий Александрович</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>_________________________________</t>
+          <t>7721581040</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>_________________________________</t>
+          <t>Исполнительный директор 'ООО Зеленые руки'</t>
         </is>
       </c>
     </row>
@@ -1425,15 +1455,39 @@
       <c r="A25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B25" s="22" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="51" t="n"/>
-      <c r="G25" s="51" t="n"/>
-      <c r="H25" s="51" t="n"/>
-      <c r="I25" s="51" t="n"/>
-      <c r="J25" s="51" t="n"/>
+      <c r="B25" s="22" t="inlineStr">
+        <is>
+          <t>DSN-040-009</t>
+        </is>
+      </c>
+      <c r="C25" s="14" t="inlineStr">
+        <is>
+          <t>Очистка вручную поверхности потолков от набела</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>м2</t>
+        </is>
+      </c>
+      <c r="E25" s="14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="51" t="inlineStr">
+        <is>
+          <t>71,80</t>
+        </is>
+      </c>
+      <c r="G25" s="51" t="inlineStr">
+        <is>
+          <t>71,80</t>
+        </is>
+      </c>
+      <c r="H25" s="51" t="inlineStr"/>
+      <c r="I25" s="51" t="inlineStr"/>
+      <c r="J25" s="51" t="inlineStr"/>
       <c r="K25" s="51" t="n"/>
     </row>
     <row r="26">
@@ -1646,11 +1700,15 @@
       <c r="E38" s="46" t="n"/>
       <c r="F38" s="46" t="n"/>
       <c r="G38" s="46" t="n"/>
-      <c r="H38" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="55" t="n">
-        <v>0</v>
+      <c r="H38" s="55" t="inlineStr">
+        <is>
+          <t>1.138,52</t>
+        </is>
+      </c>
+      <c r="I38" s="55" t="inlineStr">
+        <is>
+          <t>525,21</t>
+        </is>
       </c>
       <c r="J38" s="55" t="n"/>
       <c r="K38" s="60" t="n"/>
@@ -1813,6 +1871,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
